--- a/db_excel_files/Address-data.xlsx
+++ b/db_excel_files/Address-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guys_Mac/Desktop/Columbia Classes/Cloud Apps Microservices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiabeiyu/Desktop/Microservices-develop/db_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="28160" windowHeight="15200" tabRatio="500"/>
+    <workbookView xWindow="11620" yWindow="1860" windowWidth="14300" windowHeight="11080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -44,9 +44,6 @@
     <t>zipcode</t>
   </si>
   <si>
-    <t>personID</t>
-  </si>
-  <si>
     <t>10 Country Candle Lane</t>
   </si>
   <si>
@@ -135,15 +132,135 @@
   </si>
   <si>
     <t>WA</t>
+  </si>
+  <si>
+    <t>1 Hacker Way</t>
+  </si>
+  <si>
+    <t>Menlo Park</t>
+  </si>
+  <si>
+    <t>15010 NE 36th Street </t>
+  </si>
+  <si>
+    <t>Redmond</t>
+  </si>
+  <si>
+    <t>555 Market St</t>
+  </si>
+  <si>
+    <t>523 Ocean Front Walk</t>
+  </si>
+  <si>
+    <t>Venice</t>
+  </si>
+  <si>
+    <t>700 Anderson Hill Road</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>999 Lake Drive</t>
+  </si>
+  <si>
+    <t>Issaquah</t>
+  </si>
+  <si>
+    <t>702 S.W. Eighth St.</t>
+  </si>
+  <si>
+    <t>Bentonville</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>410 Terry Ave. North</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>7601 Penn Ave. S.</t>
+  </si>
+  <si>
+    <t>Richfield</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>1 Infinite Loop</t>
+  </si>
+  <si>
+    <t>Cupertino</t>
+  </si>
+  <si>
+    <t>1600 Amphitheatre Parkway</t>
+  </si>
+  <si>
+    <t>Mountain View</t>
+  </si>
+  <si>
+    <t>88 Colin P. Kelly Street</t>
+  </si>
+  <si>
+    <t>1355 Market St.</t>
+  </si>
+  <si>
+    <t>70d16ff2-15e8-4a41-ab94-6676b14b904b</t>
+  </si>
+  <si>
+    <t>d12328d3-83dd-49b6-8099-daf3426d9721</t>
+  </si>
+  <si>
+    <t>3210d5df-f15c-4a4f-ac43-1a9a592d8303</t>
+  </si>
+  <si>
+    <t>9df10925-861a-4d1d-98ee-101332320c1f</t>
+  </si>
+  <si>
+    <t>2057eacb-0271-4906-808a-9fe297fddd85</t>
+  </si>
+  <si>
+    <t>949b0cd9-c6c4-4c6f-81de-19ad8b38776c</t>
+  </si>
+  <si>
+    <t>f3c25fef-6ff6-4fa2-8a29-181edfc7d889</t>
+  </si>
+  <si>
+    <t>f2617975-565d-4363-832c-c480ad90d2b5</t>
+  </si>
+  <si>
+    <t>8bcdfc15-cc1a-4eaa-8136-41cc1a3f689e</t>
+  </si>
+  <si>
+    <t>b5aa62c9-b130-4d9a-898e-578f1b0d614c</t>
+  </si>
+  <si>
+    <t>43b99774-9d8c-429d-9a2c-1a1c064f310e</t>
+  </si>
+  <si>
+    <t>ae76204e-8cc0-451b-9392-ad872b3960a6</t>
+  </si>
+  <si>
+    <t>6d20e2a8-74c4-4bdc-9d13-79a3efcf5af6</t>
+  </si>
+  <si>
+    <t>9a0c24bf-4dd1-4d9a-954d-3a38f28c8ba0</t>
+  </si>
+  <si>
+    <t>01532</t>
+  </si>
+  <si>
+    <t>07306</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -173,9 +290,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,21 +571,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,292 +599,596 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1532</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>40217</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
         <v>40019</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>10025</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>10025</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>10025</v>
       </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>10024</v>
       </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
         <v>11201</v>
       </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>10022</v>
       </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7306</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>95112</v>
       </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2">
         <v>94303</v>
       </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
       <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2">
         <v>94103</v>
       </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="2">
+        <v>98168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1">
-        <v>98168</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2">
+        <v>94025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2">
+        <v>98052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2">
+        <v>94104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2">
+        <v>90291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2">
+        <v>98027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2">
+        <v>72716</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2">
+        <v>98109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="2">
+        <v>55423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2">
+        <v>94025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2">
+        <v>95014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="2">
+        <v>94043</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2">
+        <v>94107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="2">
+        <v>94103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
